--- a/LoadP.xlsx
+++ b/LoadP.xlsx
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.8880000000000008</v>
+        <v>5.8879999999999999</v>
       </c>
       <c r="C2">
         <v>6.16</v>
@@ -512,7 +512,7 @@
         <v>8.5920000000000005</v>
       </c>
       <c r="J2">
-        <v>9.136000000000001</v>
+        <v>9.1359999999999992</v>
       </c>
       <c r="K2">
         <v>9.7360000000000007</v>
@@ -523,10 +523,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.0400000000000009</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="C3">
-        <v>9.6480000000000015</v>
+        <v>9.6479999999999997</v>
       </c>
       <c r="D3">
         <v>10.295999999999999</v>
@@ -538,7 +538,7 @@
         <v>11.744</v>
       </c>
       <c r="G3">
-        <v>12.536000000000001</v>
+        <v>12.536</v>
       </c>
       <c r="H3">
         <v>13.384</v>
